--- a/data/PSY.xlsx
+++ b/data/PSY.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202 and consent of department head.</t>
+          <t>PSY 201 or PSY 202 and consent of department head.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -591,7 +741,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TBDRecommended: PSY 201 or PSY 202.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PSY 201 or PSY 202.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1, D3, or D4/E. Recommended: Completion of USCP requirement.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1, D3, or D4/E.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Completion of USCP requirement.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CD/PSY 256 or CD/EDUC 207.</t>
+          <t>CD/PSY 256 or CD/EDUC 207.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -762,12 +1032,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D4/E. Recommended: PSY 201 or PSY 202 (GE Area D4/E).</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D4/E.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PSY 201 or PSY 202 (GE Area D4/E).</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Junior standing or Psychology major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D. Recommended: PSY 201 or PSY 202.</t>
+          <t>Junior standing or Psychology major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PSY 201 or PSY 202.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202; and STAT 217.</t>
+          <t>PSY 201 or PSY 202; and STAT 217.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PSY 329; and STAT 217.</t>
+          <t>PSY 329; and STAT 217.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1004,12 +1439,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202; and one of the following: ASCI 112, BIO 111, BIO 123, BIO 161, or BIO 213. Recommended: STAT 217 or STAT 218.</t>
+          <t>PSY 201 or PSY 202; and one of the ASCI 112, BIO 111, BIO 123, BIO 161, or BIO 213.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>STAT 217 or STAT 218.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -1031,6 +1481,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1048,12 +1513,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Junior standing or Psychology major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D. Recommended: PSY 201 or PSY 202.</t>
+          <t>Junior standing or Psychology major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PSY 201 or PSY 202.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202; CD/PSY 256 or CD 305; and junior standing.</t>
+          <t>PSY 201 or PSY 202; CD/PSY 256 or CD 305; and junior standing.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PSY 252.</t>
+          <t>PSY 252.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202 and at least one other PSY course.</t>
+          <t>PSY 201 or PSY 202 and at least one other PSY course.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202; and sophomore standing.</t>
+          <t>PSY 201 or PSY 202; and sophomore standing.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1229,6 +1814,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PSY 333.</t>
+          <t>PSY 333.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CD 304, CD 305 or CD 306; or CD/PSY 256 and PSY 305.</t>
+          <t>CD 304, CD 305 or CD 306; or CD/PSY 256 and PSY 305.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PSY 256 or PSY 305 and senior standing.</t>
+          <t>PSY 256 or PSY 305 and senior standing.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PSY 340.</t>
+          <t>PSY 340.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CD 304 or CD 305 or PSY 419 or PSY 420 or PSY 421; and CD 329 or PSY 329.</t>
+          <t>CD 304 or CD 305 or PSY 419 or PSY 420 or PSY 421; and CD 329 or PSY 329.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PSY 333.</t>
+          <t>PSY 333.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202; and PSY 329.</t>
+          <t>PSY 201 or PSY 202; and PSY 329.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PSY 329, PSY 333, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
+          <t>PSY 329, PSY 333, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PSY 329, PSY 333, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
+          <t>PSY 329, PSY 333, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PSY 254, or graduate standing.</t>
+          <t>PSY 254, or graduate standing.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PSY 323, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
+          <t>PSY 323, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PSY 323, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
+          <t>PSY 323, Psychology and Child Development majors only, junior standing, and consent of instructor.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PSY 333.</t>
+          <t>PSY 333.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1554,10 +2364,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202 and junior standing.</t>
+          <t>PSY 201 or PSY 202 and junior standing.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1576,10 +2401,25 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Senior standing; PSY 329; Psychology and Child Development majors only.</t>
+          <t>Senior standing; PSY 329; Psychology and Child Development majors only.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PSY 461; Psychology and Child Development majors only.</t>
+          <t>PSY 461; Psychology and Child Development majors only.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202 and junior standing.</t>
+          <t>PSY 201 or PSY 202 and junior standing.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1647,6 +2517,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1664,10 +2549,25 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PSY 252 or PSY 254 or PSY 256.</t>
+          <t>PSY 252 or PSY 254 or PSY 256.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1686,10 +2586,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PSY 340.</t>
+          <t>PSY 340.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1713,6 +2628,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1735,6 +2665,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1757,6 +2702,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1779,6 +2739,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1801,6 +2776,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1823,6 +2813,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PSY 560 and admission to MS Psychology program.</t>
+          <t>PSY 560 and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1862,10 +2882,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PSY 555, PSY 560 and admission to MS Psychology program.</t>
+          <t>PSY 555, PSY 560 and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1889,6 +2924,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PSY 520; PSY 560; and admission to MS Psychology program.</t>
+          <t>PSY 520; PSY 560; and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
@@ -1928,10 +2993,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PSY 560 and admission to MS Psychology program.</t>
+          <t>PSY 560 and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1950,10 +3030,25 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PSY 560 and admission to MS Psychology program.</t>
+          <t>PSY 560 and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PSY 555, PSY 560, PSY 565 and admission to MS Psychology program, or consent of instructor.</t>
+          <t>PSY 555, PSY 560, PSY 565 and admission to MS Psychology program, or consent of instructor.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1994,10 +3104,25 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PSY 520; PSY 555; PSY 560; PSY 565; and admission to MS Psychology program.</t>
+          <t>PSY 520; PSY 555; PSY 560; PSY 565; and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2021,6 +3146,21 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2038,10 +3178,25 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PSY 520; PSY 555; and admission to MS Psychology program.</t>
+          <t>PSY 520; PSY 555; and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2060,10 +3215,25 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PSY 535; PSY 555; PSY 560; and admission to MS Psychology program.</t>
+          <t>PSY 535; PSY 555; PSY 560; and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2087,6 +3257,21 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -2104,10 +3289,25 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PSY 520; PSY 560; and admission to MS Psychology program.</t>
+          <t>PSY 520; PSY 560; and admission to MS Psychology program.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2126,10 +3326,25 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PSY 569, PSY 564 and consent of MS program committee.</t>
+          <t>PSY 569, PSY 564 and consent of MS program committee.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2148,10 +3363,25 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Admission to the MS Program in Psychology; PSY 535; PSY 555; PSY 556; and PSY 560.</t>
+          <t>Admission to the MS Program in Psychology; PSY 535; PSY 555; PSY 556; and PSY 560.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2175,6 +3405,21 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2192,10 +3437,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Graduate standing; PSY 560; PSY 565; and PSY 574.</t>
+          <t>Graduate standing; PSY 560; PSY 565; and PSY 574.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2214,10 +3474,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PSY 585 and advancement to candidacy.</t>
+          <t>PSY 585 and advancement to candidacy.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
